--- a/clothing_size/clothing_size.xlsx
+++ b/clothing_size/clothing_size.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="880" windowWidth="27520" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="women clothing" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
-    <t>S-M-L</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -398,6 +395,10 @@
   </si>
   <si>
     <t>UK /AU/NZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +888,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,36 +904,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>36</v>
@@ -961,7 +962,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>32</v>
@@ -990,36 +991,36 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1048,7 +1049,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -1077,7 +1078,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1086,27 +1087,27 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>33</v>
@@ -1115,25 +1116,25 @@
         <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>38</v>
@@ -1142,196 +1143,196 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1">
         <v>38</v>
@@ -1425,7 +1426,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>38</v>
@@ -1493,7 +1494,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1561,7 +1562,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>4.5</v>
@@ -1629,7 +1630,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>22.5</v>
@@ -1697,7 +1698,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>225</v>
